--- a/docs/_static/Anexo5OCDE.xlsx
+++ b/docs/_static/Anexo5OCDE.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\metabwin-2\Documents\Colciencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D724B96-07BD-481B-8DDD-6198CB4466D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277A71E-0A0D-4AEF-BEA0-5CBEF9A8CD20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 5" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla 1" sheetId="2" r:id="rId2"/>
     <sheet name="Tabla 2" sheetId="3" r:id="rId3"/>
     <sheet name="Tabla 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabla 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabla 5" sheetId="6" r:id="rId6"/>
-    <sheet name="Tabla 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Tabla 3 (1)" sheetId="8" r:id="rId5"/>
+    <sheet name="Tabla 4" sheetId="5" r:id="rId6"/>
+    <sheet name="Tabla 5" sheetId="6" r:id="rId7"/>
+    <sheet name="Tabla 6" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc532819462" localSheetId="0">'Anexo 5'!#REF!</definedName>
     <definedName name="_Toc532819462" localSheetId="1">'Tabla 1'!#REF!</definedName>
     <definedName name="_Toc532819462" localSheetId="2">'Tabla 2'!#REF!</definedName>
     <definedName name="_Toc532819462" localSheetId="3">'Tabla 3'!#REF!</definedName>
-    <definedName name="_Toc532819462" localSheetId="4">'Tabla 4'!#REF!</definedName>
-    <definedName name="_Toc532819462" localSheetId="5">'Tabla 5'!#REF!</definedName>
-    <definedName name="_Toc532819462" localSheetId="6">'Tabla 6'!#REF!</definedName>
+    <definedName name="_Toc532819462" localSheetId="4">'Tabla 3 (1)'!#REF!</definedName>
+    <definedName name="_Toc532819462" localSheetId="5">'Tabla 4'!#REF!</definedName>
+    <definedName name="_Toc532819462" localSheetId="6">'Tabla 5'!#REF!</definedName>
+    <definedName name="_Toc532819462" localSheetId="7">'Tabla 6'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="267">
   <si>
     <t>Matemáticas Puras</t>
   </si>
@@ -969,35 +971,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,6 +989,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,27 +1337,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D1" s="3"/>
@@ -1399,2041 +1401,2040 @@
       <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="7" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7" t="s">
+      <c r="A71" s="16"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="7" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="7" t="s">
+      <c r="A77" s="16"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7" t="s">
+      <c r="A79" s="16"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="7" t="s">
+      <c r="A84" s="16"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7" t="s">
+      <c r="A86" s="16"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7" t="s">
+      <c r="A87" s="16"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="16"/>
+      <c r="B88" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7" t="s">
+      <c r="A89" s="16"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="7" t="s">
+      <c r="A90" s="16"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="16"/>
+      <c r="B91" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="7" t="s">
+      <c r="A92" s="16"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="16"/>
+      <c r="B93" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7" t="s">
+      <c r="A94" s="16"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="7" t="s">
+      <c r="A96" s="16"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7" t="s">
+      <c r="A99" s="16"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7" t="s">
+      <c r="A100" s="16"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7" t="s">
+      <c r="A101" s="16"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7" t="s">
+      <c r="A102" s="16"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="11"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7" t="s">
+      <c r="A103" s="16"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7" t="s">
+      <c r="A104" s="16"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="11"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7" t="s">
+      <c r="A105" s="16"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="11"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="7" t="s">
+      <c r="A106" s="16"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="16"/>
+      <c r="B107" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7" t="s">
+      <c r="A108" s="16"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7" t="s">
+      <c r="A110" s="16"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7" t="s">
+      <c r="A111" s="16"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7" t="s">
+      <c r="A113" s="16"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7" t="s">
+      <c r="A114" s="16"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7" t="s">
+      <c r="A115" s="16"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="11"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7" t="s">
+      <c r="A116" s="16"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7" t="s">
+      <c r="A117" s="16"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="11"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7" t="s">
+      <c r="A118" s="16"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="11"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7" t="s">
+      <c r="A119" s="16"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="11"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7" t="s">
+      <c r="A120" s="16"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7" t="s">
+      <c r="A121" s="16"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="11"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7" t="s">
+      <c r="A122" s="16"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7" t="s">
+      <c r="A123" s="16"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="11"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7" t="s">
+      <c r="A124" s="16"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="11"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7" t="s">
+      <c r="A125" s="16"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="11"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7" t="s">
+      <c r="A126" s="16"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="11"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7" t="s">
+      <c r="A127" s="16"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="11"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7" t="s">
+      <c r="A128" s="16"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="11"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7" t="s">
+      <c r="A129" s="16"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7" t="s">
+      <c r="A130" s="16"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="11"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7" t="s">
+      <c r="A131" s="16"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="11"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7" t="s">
+      <c r="A132" s="16"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="11"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7" t="s">
+      <c r="A133" s="16"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="11"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7" t="s">
+      <c r="A134" s="16"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="11"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="7" t="s">
+      <c r="A135" s="16"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="11"/>
-      <c r="B136" s="6" t="s">
+      <c r="A136" s="16"/>
+      <c r="B136" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="11"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7" t="s">
+      <c r="A137" s="16"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="11"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7" t="s">
+      <c r="A138" s="16"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="11"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7" t="s">
+      <c r="A139" s="16"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="11"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7" t="s">
+      <c r="A140" s="16"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="11"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7" t="s">
+      <c r="A141" s="16"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="11"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7" t="s">
+      <c r="A142" s="16"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="11"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7" t="s">
+      <c r="A143" s="16"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="11"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7" t="s">
+      <c r="A144" s="16"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="11"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7" t="s">
+      <c r="A145" s="16"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="11"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7" t="s">
+      <c r="A146" s="16"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="11"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7" t="s">
+      <c r="A147" s="16"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="11"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7" t="s">
+      <c r="A148" s="16"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="11"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="7" t="s">
+      <c r="A149" s="16"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="11"/>
-      <c r="B150" s="6" t="s">
+      <c r="A150" s="16"/>
+      <c r="B150" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="11"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7" t="s">
+      <c r="A151" s="16"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="11"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7" t="s">
+      <c r="A152" s="16"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7" t="s">
+      <c r="A153" s="16"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="11"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="7" t="s">
+      <c r="A154" s="16"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="11"/>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="16"/>
+      <c r="B155" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="11"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7" t="s">
+      <c r="A156" s="16"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="11"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="7" t="s">
+      <c r="A157" s="16"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7" t="s">
+      <c r="A160" s="16"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="11"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7" t="s">
+      <c r="A161" s="16"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="11"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7" t="s">
+      <c r="A162" s="16"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7" t="s">
+      <c r="A163" s="16"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="11"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7" t="s">
+      <c r="A164" s="16"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="11"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="7" t="s">
+      <c r="A165" s="16"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="11"/>
-      <c r="B166" s="6" t="s">
+      <c r="A166" s="16"/>
+      <c r="B166" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="11"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="7" t="s">
+      <c r="A167" s="16"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="11"/>
-      <c r="B168" s="10" t="s">
+      <c r="A168" s="16"/>
+      <c r="B168" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="11"/>
-      <c r="B169" s="6" t="s">
+      <c r="A169" s="16"/>
+      <c r="B169" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="11"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7" t="s">
+      <c r="A170" s="16"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="11"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="7" t="s">
+      <c r="A171" s="16"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="11"/>
-      <c r="B172" s="10" t="s">
+      <c r="A172" s="16"/>
+      <c r="B172" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="7" t="s">
+      <c r="A175" s="18"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
-      <c r="B176" s="6" t="s">
+      <c r="A176" s="18"/>
+      <c r="B176" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7" t="s">
+      <c r="A177" s="18"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7" t="s">
+      <c r="A178" s="18"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="7" t="s">
+      <c r="A179" s="18"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="6" t="s">
+      <c r="A180" s="18"/>
+      <c r="B180" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="7" t="s">
+      <c r="A181" s="18"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
-      <c r="B182" s="6" t="s">
+      <c r="A182" s="18"/>
+      <c r="B182" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7" t="s">
+      <c r="A183" s="18"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7" t="s">
+      <c r="A184" s="18"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="7" t="s">
+      <c r="A185" s="18"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="7" t="s">
+      <c r="A186" s="18"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
-      <c r="B187" s="6" t="s">
+      <c r="A187" s="18"/>
+      <c r="B187" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="7" t="s">
+      <c r="A188" s="18"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
-      <c r="B189" s="6" t="s">
+      <c r="A189" s="18"/>
+      <c r="B189" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="7" t="s">
+      <c r="A190" s="18"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="7" t="s">
+      <c r="A191" s="18"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
-      <c r="B192" s="6" t="s">
+      <c r="A192" s="18"/>
+      <c r="B192" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
-      <c r="B193" s="8"/>
-      <c r="C193" s="7" t="s">
+      <c r="A193" s="18"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="7" t="s">
+      <c r="A194" s="18"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="7" t="s">
+      <c r="A195" s="18"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13"/>
-      <c r="B196" s="6" t="s">
+      <c r="A196" s="18"/>
+      <c r="B196" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="7" t="s">
+      <c r="A197" s="18"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="7" t="s">
+      <c r="A198" s="18"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="7" t="s">
+      <c r="A199" s="18"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
-      <c r="B200" s="6" t="s">
+      <c r="A200" s="18"/>
+      <c r="B200" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="14"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="7" t="s">
+      <c r="A201" s="19"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
+      <c r="A202" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="7" t="s">
+      <c r="A204" s="18"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
-      <c r="B205" s="6" t="s">
+      <c r="A205" s="18"/>
+      <c r="B205" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="7" t="s">
+      <c r="A206" s="18"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="7" t="s">
+      <c r="A207" s="18"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="7" t="s">
+      <c r="A208" s="18"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="7" t="s">
+      <c r="A209" s="18"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="7" t="s">
+      <c r="A210" s="18"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
-      <c r="B211" s="6" t="s">
+      <c r="A211" s="18"/>
+      <c r="B211" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="7" t="s">
+      <c r="A212" s="18"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7" t="s">
+      <c r="A213" s="18"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7" t="s">
+      <c r="A214" s="18"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7" t="s">
+      <c r="A215" s="18"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7" t="s">
+      <c r="A216" s="18"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7" t="s">
+      <c r="A217" s="18"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="7" t="s">
+      <c r="A218" s="18"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="6" t="s">
+      <c r="A219" s="18"/>
+      <c r="B219" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="7" t="s">
+      <c r="A220" s="18"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="6" t="s">
+      <c r="A221" s="18"/>
+      <c r="B221" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7" t="s">
+      <c r="A222" s="18"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="14"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="7" t="s">
+      <c r="A223" s="19"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="15"/>
-      <c r="B224" s="16"/>
-      <c r="C224" s="17"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="15"/>
-      <c r="B225" s="16"/>
-      <c r="C225" s="17"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="15"/>
-      <c r="B226" s="16"/>
-      <c r="C226" s="17"/>
+      <c r="A226" s="7"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="15"/>
-      <c r="B227" s="16"/>
-      <c r="C227" s="17"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="15"/>
-      <c r="B228" s="16"/>
-      <c r="C228" s="17"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="15"/>
-      <c r="B229" s="16"/>
-      <c r="C229" s="17"/>
+      <c r="A229" s="7"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="15"/>
-      <c r="B230" s="16"/>
-      <c r="C230" s="17"/>
+      <c r="A230" s="7"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="15"/>
-      <c r="B231" s="16"/>
-      <c r="C231" s="17"/>
+      <c r="A231" s="7"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="15"/>
-      <c r="B232" s="16"/>
-      <c r="C232" s="17"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="15"/>
-      <c r="B233" s="16"/>
-      <c r="C233" s="17"/>
+      <c r="A233" s="7"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="15"/>
-      <c r="B234" s="16"/>
-      <c r="C234" s="17"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="15"/>
-      <c r="B235" s="16"/>
-      <c r="C235" s="17"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="15"/>
-      <c r="B236" s="16"/>
-      <c r="C236" s="17"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="15"/>
-      <c r="B237" s="16"/>
-      <c r="C237" s="17"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="15"/>
-      <c r="B238" s="16"/>
-      <c r="C238" s="17"/>
+      <c r="A238" s="7"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="15"/>
-      <c r="B239" s="16"/>
-      <c r="C239" s="17"/>
+      <c r="A239" s="7"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
-      <c r="B240" s="16"/>
-      <c r="C240" s="17"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
-      <c r="B241" s="16"/>
-      <c r="C241" s="17"/>
+      <c r="A241" s="7"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="15"/>
-      <c r="B242" s="16"/>
-      <c r="C242" s="17"/>
+      <c r="A242" s="7"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="15"/>
-      <c r="B243" s="16"/>
-      <c r="C243" s="17"/>
+      <c r="A243" s="7"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="15"/>
-      <c r="B244" s="16"/>
-      <c r="C244" s="17"/>
+      <c r="A244" s="7"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="9"/>
     </row>
     <row r="245" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="15"/>
-      <c r="B245" s="16"/>
-      <c r="C245" s="17"/>
+      <c r="A245" s="7"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="15"/>
-      <c r="B246" s="16"/>
-      <c r="C246" s="17"/>
+      <c r="A246" s="7"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="15"/>
-      <c r="B247" s="16"/>
-      <c r="C247" s="17"/>
+      <c r="A247" s="7"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="9"/>
     </row>
     <row r="248" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="15"/>
-      <c r="B248" s="16"/>
-      <c r="C248" s="17"/>
+      <c r="A248" s="7"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="9"/>
     </row>
     <row r="249" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="15"/>
-      <c r="B249" s="16"/>
-      <c r="C249" s="17"/>
+      <c r="A249" s="7"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="15"/>
-      <c r="B250" s="16"/>
-      <c r="C250" s="17"/>
+      <c r="A250" s="7"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="9"/>
     </row>
     <row r="251" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="15"/>
-      <c r="B251" s="16"/>
-      <c r="C251" s="17"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="15"/>
-      <c r="B252" s="16"/>
-      <c r="C252" s="17"/>
+      <c r="A252" s="7"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="15"/>
-      <c r="B253" s="16"/>
-      <c r="C253" s="17"/>
+      <c r="A253" s="7"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="15"/>
-      <c r="B254" s="16"/>
-      <c r="C254" s="17"/>
+      <c r="A254" s="7"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="15"/>
-      <c r="B255" s="16"/>
-      <c r="C255" s="17"/>
+      <c r="A255" s="7"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="15"/>
-      <c r="B256" s="16"/>
-      <c r="C256" s="17"/>
+      <c r="A256" s="7"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="9"/>
     </row>
     <row r="257" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="15"/>
-      <c r="B257" s="16"/>
-      <c r="C257" s="17"/>
+      <c r="A257" s="7"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="15"/>
-      <c r="B258" s="16"/>
-      <c r="C258" s="17"/>
+      <c r="A258" s="7"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="15"/>
-      <c r="B259" s="16"/>
-      <c r="C259" s="17"/>
+      <c r="A259" s="7"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="15"/>
-      <c r="B260" s="16"/>
-      <c r="C260" s="17"/>
+      <c r="A260" s="7"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="15"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="17"/>
+      <c r="A261" s="7"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="15"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="17"/>
+      <c r="A262" s="7"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="9"/>
     </row>
     <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="15"/>
-      <c r="B263" s="16"/>
-      <c r="C263" s="17"/>
+      <c r="A263" s="7"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="15"/>
-      <c r="B264" s="16"/>
-      <c r="C264" s="17"/>
+      <c r="A264" s="7"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="15"/>
-      <c r="B265" s="16"/>
-      <c r="C265" s="17"/>
+      <c r="A265" s="7"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="15"/>
-      <c r="B266" s="16"/>
-      <c r="C266" s="17"/>
+      <c r="A266" s="7"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="16"/>
-      <c r="C267" s="17"/>
+      <c r="A267" s="7"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="16"/>
-      <c r="C268" s="17"/>
+      <c r="A268" s="7"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="16"/>
-      <c r="C269" s="17"/>
+      <c r="A269" s="7"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="16"/>
-      <c r="C270" s="17"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="15"/>
-      <c r="B271" s="16"/>
-      <c r="C271" s="17"/>
+      <c r="A271" s="7"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="15"/>
-      <c r="B272" s="16"/>
-      <c r="C272" s="17"/>
+      <c r="A272" s="7"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="15"/>
-      <c r="B273" s="16"/>
-      <c r="C273" s="17"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="15"/>
-      <c r="B274" s="16"/>
-      <c r="C274" s="17"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="15"/>
-      <c r="B275" s="16"/>
-      <c r="C275" s="17"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="15"/>
-      <c r="B276" s="16"/>
-      <c r="C276" s="17"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="15"/>
-      <c r="B277" s="16"/>
-      <c r="C277" s="17"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="15"/>
-      <c r="B278" s="16"/>
-      <c r="C278" s="17"/>
+      <c r="A278" s="7"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="15"/>
-      <c r="B279" s="16"/>
-      <c r="C279" s="17"/>
+      <c r="A279" s="7"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="15"/>
-      <c r="B280" s="16"/>
-      <c r="C280" s="17"/>
+      <c r="A280" s="7"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="15"/>
-      <c r="B281" s="16"/>
-      <c r="C281" s="17"/>
+      <c r="A281" s="7"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="15"/>
-      <c r="B282" s="16"/>
-      <c r="C282" s="17"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="15"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="17"/>
+      <c r="A283" s="7"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="15"/>
-      <c r="B284" s="16"/>
-      <c r="C284" s="17"/>
+      <c r="A284" s="7"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="15"/>
-      <c r="B285" s="16"/>
-      <c r="C285" s="17"/>
+      <c r="A285" s="7"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="15"/>
-      <c r="B286" s="16"/>
-      <c r="C286" s="17"/>
+      <c r="A286" s="7"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="9"/>
     </row>
     <row r="287" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="15"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="17"/>
+      <c r="A287" s="7"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="15"/>
-      <c r="B288" s="16"/>
-      <c r="C288" s="17"/>
+      <c r="A288" s="7"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="15"/>
-      <c r="B289" s="16"/>
-      <c r="C289" s="17"/>
+      <c r="A289" s="7"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B192:B195"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B33:B48"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B62:B67"/>
     <mergeCell ref="A203:A223"/>
     <mergeCell ref="B150:B154"/>
     <mergeCell ref="B136:B149"/>
     <mergeCell ref="B107:B135"/>
     <mergeCell ref="B98:B106"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B211:B218"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="B192:B195"/>
     <mergeCell ref="A2:A49"/>
     <mergeCell ref="A51:A96"/>
     <mergeCell ref="A98:A157"/>
     <mergeCell ref="A159:A172"/>
     <mergeCell ref="A174:A201"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B33:B48"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B211:B218"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B62:B67"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="B196:B199"/>
@@ -3448,6 +3449,7 @@
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="B176:B179"/>
     <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B70:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3458,27 +3460,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374804F9-17B9-4F05-A137-F2010EABE437}">
   <dimension ref="A1:AQ115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D1" s="3"/>
@@ -3522,689 +3524,689 @@
       <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="17"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4231,700 +4233,700 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4948,803 +4950,640 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876A0C8-D8AF-4DB5-B4EB-C9AB55D1E252}">
-  <dimension ref="A1:AQ127"/>
+  <dimension ref="A1:AQ105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>151</v>
-      </c>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="7" t="s">
-        <v>152</v>
-      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
-        <v>155</v>
-      </c>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
-        <v>156</v>
-      </c>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="7" t="s">
-        <v>166</v>
-      </c>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17"/>
-    </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
-    </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
-    </row>
-    <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
-    </row>
-    <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
-    </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="17"/>
-    </row>
-    <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
-    </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
-    </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
-    </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="17"/>
-    </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
-    </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="17"/>
-    </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="17"/>
-    </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="17"/>
-    </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="17"/>
-    </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="17"/>
-    </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="17"/>
-    </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
-    </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="17"/>
-    </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="17"/>
-    </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="17"/>
-    </row>
-    <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
-    </row>
-    <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A61"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A39"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B39"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5752,6 +5591,539 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBB1D51-FBE8-48B3-AD5B-DB7BA90309C9}">
+  <dimension ref="A1:AQ89"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
+    <col min="4" max="42" width="11.42578125" style="1"/>
+    <col min="43" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ1" s="2"/>
+    </row>
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860571D-5539-4BB8-BCCE-BD5BBA71347E}">
   <dimension ref="A1:AQ81"/>
   <sheetViews>
@@ -5761,464 +6133,464 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6232,7 +6604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D151399-0986-42FF-80E2-82FF35347A65}">
   <dimension ref="A1:AQ95"/>
   <sheetViews>
@@ -6242,570 +6614,570 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6825,7 +7197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF41B485-FA25-4B8D-BA96-B92282A7A08E}">
   <dimension ref="A1:AQ88"/>
   <sheetViews>
@@ -6835,513 +7207,513 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="9" customWidth="1"/>
     <col min="4" max="42" width="11.42578125" style="1"/>
     <col min="43" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>253</v>
       </c>
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
